--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -493,147 +493,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
                 ('model',
-                 RandomForestClassifier(max_depth=1, min_samples_leaf=4,
-                                        min_samples_split=5, n_estimators=5,
+                 RandomForestClassifier(max_depth=3, min_samples_leaf=4,
+                                        min_samples_split=5, n_estimators=10,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7377355310614488</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 4, 'model__max_features': 'sqrt', 'model__max_depth': 1}</t>
+          <t>{'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 5, 'model__min_samples_leaf': 4, 'model__max_features': 'sqrt', 'model__max_depth': 3}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.588235294117647</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8649674517552858</v>
+        <v>0.8269761904761905</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01782963624033494</v>
+        <v>0.02531330455377828</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6787203858783221</v>
+        <v>0.5794285714285713</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05387263348851298</v>
+        <v>0.06122080097591206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
                 ('model',
-                 RandomForestClassifier(max_depth=1, min_samples_leaf=3,
-                                        min_samples_split=5, n_estimators=50,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, max_features='log2',
+                                        min_samples_leaf=6, min_samples_split=4,
+                                        n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7468940534045553</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 3, 'model__max_features': 'sqrt', 'model__max_depth': 1}</t>
+          <t>{'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 4, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8703647039419709</v>
+        <v>0.8216428571428571</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02008431138313846</v>
+        <v>0.02136091209759637</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6629404282203956</v>
+        <v>0.5629523809523808</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06490574011466123</v>
+        <v>0.05435091951982482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
                 ('model',
                  RandomForestClassifier(max_depth=5, max_features='log2',
-                                        min_samples_leaf=6, min_samples_split=5,
-                                        n_estimators=10, random_state=42))])</t>
+                                        min_samples_leaf=5, n_estimators=10,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7453679653679653</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 5}</t>
+          <t>{'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 5}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8693945382380116</v>
+        <v>0.8233333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02415694597942733</v>
+        <v>0.02858055038122801</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6614906485817384</v>
+        <v>0.5129523809523809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09071393853583942</v>
+        <v>0.07418938874856712</v>
       </c>
     </row>
   </sheetData>

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,117 +493,123 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45a99f0580&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=3, min_samples_leaf=4,
-                                        min_samples_split=5, n_estimators=10,
+                 RandomForestClassifier(max_depth=5, min_samples_leaf=6,
+                                        min_samples_split=5, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 5, 'model__min_samples_leaf': 4, 'model__max_features': 'sqrt', 'model__max_depth': 3}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64541040&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 5}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 1 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 1 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8269761904761905</v>
+        <v>0.8175406871609404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02531330455377828</v>
+        <v>0.02377518512520467</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5794285714285713</v>
+        <v>0.5918022905364677</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06122080097591206</v>
+        <v>0.07405076486267803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e8b0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=6, min_samples_split=4,
-                                        n_estimators=10, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=2, max_features='log2',
+                                        min_samples_leaf=5, min_samples_split=4,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 4, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64619520&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 2}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 1 0 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8216428571428571</v>
+        <v>0.8103571428571428</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02136091209759637</v>
+        <v>0.02569604584235274</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5629523809523808</v>
+        <v>0.5394047619047618</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05435091951982482</v>
+        <v>0.0824882319080132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a641576d0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=5, max_features='log2',
-                                        min_samples_leaf=5, n_estimators=10,
+                 RandomForestClassifier(max_depth=4, max_features='log2',
+                                        min_samples_leaf=5, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714284</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a646ae340&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 4}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -612,23 +618,119 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8233333333333333</v>
+        <v>0.8326441102756893</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02858055038122801</v>
+        <v>0.03138730663534699</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5129523809523809</v>
+        <v>0.5266917293233082</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07418938874856712</v>
+        <v>0.08374548353770728</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64157400&gt;),
+                ('model',
+                 RandomForestClassifier(max_depth=4, max_features='log2',
+                                        min_samples_leaf=5, min_samples_split=3,
+                                        n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6380952380952382</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e940&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__min_samples_split': 3, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 4}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6153846153846153</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 0 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8420024420024419</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02426141396175129</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07344992139759915</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 RandomForestClassifier(max_depth=2, max_features='log2',
+                                        min_samples_leaf=3, min_samples_split=4,
+                                        n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 4, 'model__min_samples_leaf': 3, 'model__max_features': 'log2', 'model__max_depth': 2}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.845539481615431</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02466981175987563</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5585292344786015</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07476658767319569</v>
       </c>
     </row>
   </sheetData>

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,48 +495,49 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45a99f0580&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 RandomForestClassifier(max_depth=5, min_samples_leaf=6,
+                 RandomForestClassifier(max_depth=1, min_samples_leaf=2,
                                         min_samples_split=5, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6684173669467788</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64541040&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 1 1 1 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8175406871609404</v>
+        <v>0.8570904887004164</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02377518512520467</v>
+        <v>0.01914744302423442</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5918022905364677</v>
+        <v>0.5687020631157628</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07405076486267803</v>
+        <v>0.14149500752366</v>
       </c>
     </row>
     <row r="3">
@@ -544,23 +545,23 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e8b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1fd401bcd0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=2, max_features='log2',
-                                        min_samples_leaf=5, min_samples_split=4,
-                                        n_estimators=50, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=4, min_samples_leaf=6,
+                                        min_samples_split=5, n_estimators=5,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7639468864468864</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64619520&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 2}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1fa87aa430&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 4}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -569,23 +570,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
+          <t>[0 1 1 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8103571428571428</v>
+        <v>0.8511873961335248</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02569604584235274</v>
+        <v>0.01942586087698733</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5394047619047618</v>
+        <v>0.6590226648351649</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0824882319080132</v>
+        <v>0.08648700939139756</v>
       </c>
     </row>
     <row r="4">
@@ -593,144 +594,95 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a641576d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1fa87f3940&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=4, max_features='log2',
-                                        min_samples_leaf=5, n_estimators=50,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, max_features='log2',
+                                        min_samples_leaf=5, min_samples_split=4,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6285714285714284</v>
+        <v>0.7392717086834734</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a646ae340&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 4}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f207861b880&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
+          <t>[1 1 1 1 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8326441102756893</v>
+        <v>0.8601823651189228</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03138730663534699</v>
+        <v>0.02209153558316852</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5266917293233082</v>
+        <v>0.6507700961237819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08374548353770728</v>
+        <v>0.1069882859178601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64157400&gt;),
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
                 ('model',
-                 RandomForestClassifier(max_depth=4, max_features='log2',
-                                        min_samples_leaf=5, min_samples_split=3,
-                                        n_estimators=5, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, max_features='log2',
+                                        min_samples_leaf=4, min_samples_split=3,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6380952380952382</v>
+        <v>0.7705882352941176</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6464e940&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__min_samples_split': 3, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 4}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 3, 'model__min_samples_leaf': 4, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 0 1 1 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8420024420024419</v>
+        <v>0.8695305796340383</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02426141396175129</v>
+        <v>0.01685505924238187</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.6838466169193724</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07344992139759915</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 RandomForestClassifier(max_depth=2, max_features='log2',
-                                        min_samples_leaf=3, min_samples_split=4,
-                                        n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__min_samples_split': 4, 'model__min_samples_leaf': 3, 'model__max_features': 'log2', 'model__max_depth': 2}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.845539481615431</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02466981175987563</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5585292344786015</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.07476658767319569</v>
+        <v>0.1013594848615643</v>
       </c>
     </row>
   </sheetData>

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -528,16 +528,16 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8570904887004164</v>
+        <v>0.8491757757212407</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01914744302423442</v>
+        <v>0.01865615782111787</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5687020631157628</v>
+        <v>0.577491559747442</v>
       </c>
       <c r="K2" t="n">
-        <v>0.14149500752366</v>
+        <v>0.1410841369937458</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1fd401bcd0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9124351400&gt;),
                 ('model',
                  RandomForestClassifier(max_depth=4, min_samples_leaf=6,
                                         min_samples_split=5, n_estimators=5,
@@ -557,7 +557,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1fa87aa430&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 4}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f912436c4c0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 4}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -577,40 +577,40 @@
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8511873961335248</v>
+        <v>0.8472431978152923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01942586087698733</v>
+        <v>0.01928576176075777</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6590226648351649</v>
+        <v>0.6729498222365869</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08648700939139756</v>
+        <v>0.08474817535992608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1fa87f3940&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f912436c520&gt;),
                 ('model',
                  RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=5, min_samples_split=4,
-                                        n_estimators=50, random_state=42))])</t>
+                                        min_samples_leaf=6, min_samples_split=3,
+                                        n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7392717086834734</v>
+        <v>0.751909071320836</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f207861b880&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f912430b040&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__min_samples_split': 3, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -619,45 +619,47 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 1 1 1 1]</t>
+          <t>[1 1 1 1 0 1 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8601823651189228</v>
+        <v>0.8494368248792162</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02209153558316852</v>
+        <v>0.02102388005257803</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6507700961237819</v>
+        <v>0.6614738575150341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1069882859178601</v>
+        <v>0.1035510159351227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f912436cf40&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=4, min_samples_split=3,
-                                        n_estimators=50, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=2, min_samples_leaf=6,
+                                        min_samples_split=6, n_estimators=50,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7705882352941176</v>
+        <v>0.7825280112044817</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 3, 'model__min_samples_leaf': 4, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9124321520&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 6, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 2}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -666,23 +668,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8695305796340383</v>
+        <v>0.859125616976954</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01685505924238187</v>
+        <v>0.01687818350331054</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6838466169193724</v>
+        <v>0.695204026365791</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1013594848615643</v>
+        <v>0.09861643889008531</v>
       </c>
     </row>
   </sheetData>

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 1}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -528,40 +528,41 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8491757757212407</v>
+        <v>0.8428203247282887</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01865615782111787</v>
+        <v>0.021473362882635</v>
       </c>
       <c r="J2" t="n">
-        <v>0.577491559747442</v>
+        <v>0.551409149837091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1410841369937458</v>
+        <v>0.162680817187265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9124351400&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1f98f65ac0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=4, min_samples_leaf=6,
-                                        min_samples_split=5, n_estimators=5,
+                 RandomForestClassifier(class_weight='balanced', max_depth=1,
+                                        max_features='log2', min_samples_leaf=2,
+                                        min_samples_split=4, n_estimators=5,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7639468864468864</v>
+        <v>0.7748672895731719</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f912436c4c0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 4}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ef437e0a0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 4, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -570,43 +571,43 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 1 0 1 0 1 0 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8472431978152923</v>
+        <v>0.8429735964687564</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01928576176075777</v>
+        <v>0.02177969441387681</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6729498222365869</v>
+        <v>0.667320004995005</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08474817535992608</v>
+        <v>0.103544293606053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f912436c520&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1f98f65880&gt;),
                 ('model',
                  RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=6, min_samples_split=3,
+                                        min_samples_leaf=5, min_samples_split=5,
                                         n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.751909071320836</v>
+        <v>0.7474973066149536</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f912430b040&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__min_samples_split': 3, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ec860ae80&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -626,16 +627,16 @@
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8494368248792162</v>
+        <v>0.8536937178170574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02102388005257803</v>
+        <v>0.02416122535890779</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6614738575150341</v>
+        <v>0.6339046615149556</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1035510159351227</v>
+        <v>0.123568088723107</v>
       </c>
     </row>
     <row r="5">
@@ -643,7 +644,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f912436cf40&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f1ef4365130&gt;),
                 ('model',
                  RandomForestClassifier(max_depth=2, min_samples_leaf=6,
                                         min_samples_split=6, n_estimators=50,
@@ -655,7 +656,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9124321520&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 6, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 2}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1f990d8670&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 6, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 2, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -675,16 +676,16 @@
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.859125616976954</v>
+        <v>0.844361109108965</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01687818350331054</v>
+        <v>0.02342145808732886</v>
       </c>
       <c r="J5" t="n">
-        <v>0.695204026365791</v>
+        <v>0.6500683752521987</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09861643889008531</v>
+        <v>0.1216541055558354</v>
       </c>
     </row>
   </sheetData>

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,192 +451,244 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5873896d0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, min_samples_leaf=2,
-                                        min_samples_split=5, n_estimators=50,
+                 RandomForestClassifier(max_depth=3, min_samples_leaf=5,
+                                        min_samples_split=5, n_estimators=5,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6684173669467788</v>
+        <v>0.6759523809523811</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5872e18e0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 3, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.8513278198212739</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5244346542346543</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7692307692307692</v>
       </c>
       <c r="G2" t="n">
+        <v>0.8235022318487288</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5440571428571428</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8901190476190477</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8428203247282887</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.021473362882635</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.551409149837091</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.162680817187265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1f98f65ac0&gt;),
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        max_features='log2', min_samples_leaf=2,
-                                        min_samples_split=4, n_estimators=5,
+                 RandomForestClassifier(max_depth=6, max_features='log2',
+                                        min_samples_leaf=2, n_estimators=5,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7748672895731719</v>
+        <v>0.6921428571428571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ef437e0a0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 4, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 2, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 6, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 0 1 0 1 0]</t>
-        </is>
+        <v>0.839690148833381</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5901477744477744</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G3" t="n">
+        <v>0.8243197915927847</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5678964285714286</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8633749999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6415999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8429735964687564</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02177969441387681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.667320004995005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.103544293606053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1f98f65880&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5872e1eb0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=5, min_samples_split=5,
-                                        n_estimators=10, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=2, min_samples_leaf=2,
+                                        min_samples_split=4, n_estimators=5,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7474973066149536</v>
+        <v>0.6713095238095238</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1ec860ae80&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58720c460&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 4, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 2, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 1 1]</t>
-        </is>
+        <v>0.8615067929819722</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5544539405039405</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.64</v>
       </c>
       <c r="G4" t="n">
+        <v>0.8621157640155077</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5555412698412698</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8652368421052631</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5803999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8536937178170574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02416122535890779</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6339046615149556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.123568088723107</v>
       </c>
     </row>
     <row r="5">
@@ -644,48 +696,121 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f1ef4365130&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58720cdf0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=2, min_samples_leaf=6,
-                                        min_samples_split=6, n_estimators=50,
+                 RandomForestClassifier(class_weight='balanced', max_depth=6,
+                                        min_samples_leaf=6, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7825280112044817</v>
+        <v>0.7155952380952381</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f1f990d8670&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 6, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 2, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5870d20d0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 6, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
+        <v>0.8473978917229471</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5674308302808304</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6363636363636364</v>
       </c>
       <c r="G5" t="n">
+        <v>0.8223892449520005</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.542618253968254</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8873095238095238</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6314</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.844361109108965</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02342145808732886</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6500683752521987</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1216541055558354</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58722a970&gt;),
+                ('model',
+                 RandomForestClassifier(class_weight='balanced', max_depth=1,
+                                        min_samples_leaf=3, min_samples_split=3,
+                                        n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7030952380952381</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5870e16a0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 3, 'model__min_samples_leaf': 3, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8543515421504925</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6273597791097791</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8193993821591412</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.569670634920635</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9027272727272728</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7260000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -513,58 +513,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5873896d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f3f5a60&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=3, min_samples_leaf=5,
-                                        min_samples_split=5, n_estimators=5,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, min_samples_leaf=6,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6759523809523811</v>
+        <v>0.7134215784215785</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5872e18e0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 5, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 3, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d10fa90&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8513278198212739</v>
+        <v>0.8401853282782578</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5244346542346543</v>
+        <v>0.5821970640470641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8235022318487288</v>
+        <v>0.8325774940421917</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5440571428571428</v>
+        <v>0.5800686507936508</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8901190476190477</v>
+        <v>0.8570638297872339</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5496</v>
+        <v>0.6143333333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9375</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -574,56 +573,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f5cb9a0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=6, max_features='log2',
-                                        min_samples_leaf=2, n_estimators=5,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, min_samples_leaf=6,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6921428571428571</v>
+        <v>0.7107692307692308</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 2, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 6, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d1257c0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.839690148833381</v>
+        <v>0.8329874267787837</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5901477744477744</v>
+        <v>0.5712759851259851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8243197915927847</v>
+        <v>0.8304463240857151</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5678964285714286</v>
+        <v>0.6431464285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8633749999999999</v>
+        <v>0.845191489361702</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6415999999999999</v>
+        <v>0.5478333333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5416666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -633,58 +633,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5872e1eb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f6335b0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=2, min_samples_leaf=2,
-                                        min_samples_split=4, n_estimators=5,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, max_features='log2',
+                                        min_samples_leaf=5, min_samples_split=4,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6713095238095238</v>
+        <v>0.6796503496503496</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58720c460&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 4, 'model__min_samples_leaf': 2, 'model__max_features': 'sqrt', 'model__max_depth': 2, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d13b490&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8615067929819722</v>
+        <v>0.8475767315755198</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5544539405039405</v>
+        <v>0.577533893883894</v>
       </c>
       <c r="F4" t="n">
-        <v>0.64</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8621157640155077</v>
+        <v>0.8399166819802077</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5555412698412698</v>
+        <v>0.5925865079365079</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8652368421052631</v>
+        <v>0.8608222222222223</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5803999999999999</v>
+        <v>0.5979999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -696,56 +696,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58720cdf0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d10f0a0&gt;),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=6,
-                                        min_samples_leaf=6, n_estimators=50,
-                                        random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, max_features='log2',
+                                        min_samples_leaf=4, min_samples_split=4,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7155952380952381</v>
+        <v>0.7459890109890109</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5870d20d0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 6, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9ce09190&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 4, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8473978917229471</v>
+        <v>0.8438098805910011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5674308302808304</v>
+        <v>0.5974429958929959</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8223892449520005</v>
+        <v>0.8242784681730062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.542618253968254</v>
+        <v>0.5800861111111111</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8873095238095238</v>
+        <v>0.8753061224489795</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6314</v>
+        <v>0.6426666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -755,58 +755,58 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58722a970&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d125e20&gt;),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        min_samples_leaf=3, min_samples_split=3,
+                 RandomForestClassifier(max_depth=2, max_features='log2',
+                                        min_samples_leaf=6, min_samples_split=4,
                                         n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7030952380952381</v>
+        <v>0.7533516483516484</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5870e16a0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 3, 'model__min_samples_leaf': 3, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d13b820&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 4, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8543515421504925</v>
+        <v>0.8431748806668244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6273597791097791</v>
+        <v>0.6281535797535798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.55</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8193993821591412</v>
+        <v>0.8387768999159489</v>
       </c>
       <c r="H6" t="n">
-        <v>0.569670634920635</v>
+        <v>0.6050103174603174</v>
       </c>
       <c r="I6" t="n">
-        <v>0.55</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9027272727272728</v>
+        <v>0.861</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7260000000000001</v>
+        <v>0.6828333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/RandomForestClassifier.xlsx
+++ b/results/RandomForestClassifier.xlsx
@@ -513,45 +513,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f3f5a60&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f181d355fa0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, min_samples_leaf=6,
-                                        n_estimators=50, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=2, max_features='log2',
+                                        min_samples_leaf=10,
+                                        min_samples_split=5, n_estimators=200,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7134215784215785</v>
+        <v>0.724044289044289</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d10fa90&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f181d319eb0&gt;, 'scaler': None, 'model__n_estimators': 200, 'model__min_samples_split': 5, 'model__min_samples_leaf': 10, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8401853282782578</v>
+        <v>0.7908274173368717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5821970640470641</v>
+        <v>0.6355930125430125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8325774940421917</v>
+        <v>0.7536348240209954</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5800686507936508</v>
+        <v>0.5975710317460318</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8570638297872339</v>
+        <v>0.8547234042553191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6143333333333333</v>
+        <v>0.7133333333333332</v>
       </c>
       <c r="L2" t="n">
         <v>0.9375</v>
@@ -563,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,48 +575,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f5cb9a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f181d3d18b0&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, min_samples_leaf=6,
-                                        n_estimators=50, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=2, max_features='log2',
+                                        min_samples_leaf=11,
+                                        min_samples_split=7, n_estimators=200,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7107692307692308</v>
+        <v>0.7294971694971694</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d1257c0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 2, 'model__min_samples_leaf': 6, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f181d20ea00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 200, 'model__min_samples_split': 7, 'model__min_samples_leaf': 11, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8329874267787837</v>
+        <v>0.7912883190734448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5712759851259851</v>
+        <v>0.5967024087024086</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8304463240857151</v>
+        <v>0.7752558903792831</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6431464285714286</v>
+        <v>0.6825821428571427</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="J3" t="n">
-        <v>0.845191489361702</v>
+        <v>0.8264255319148937</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5478333333333334</v>
+        <v>0.5823333333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -623,7 +627,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -635,47 +639,48 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f6335b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f181d3d1730&gt;),
                 ('model',
                  RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=5, min_samples_split=4,
-                                        n_estimators=50, random_state=42))])</t>
+                                        min_samples_leaf=4,
+                                        min_samples_split=10,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6796503496503496</v>
+        <v>0.7045221445221446</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d13b490&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f181d20eeb0&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 10, 'model__min_samples_leaf': 4, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8475767315755198</v>
+        <v>0.7963998176902769</v>
       </c>
       <c r="E4" t="n">
-        <v>0.577533893883894</v>
+        <v>0.6142599567099566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.7647058823529413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8399166819802077</v>
+        <v>0.7940489092838345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5925865079365079</v>
+        <v>0.6364825396825396</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8608222222222223</v>
+        <v>0.8065777777777778</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5979999999999999</v>
+        <v>0.6216</v>
       </c>
       <c r="L4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -684,7 +689,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1]</t>
+          <t>[0 1 1 0 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -696,44 +701,44 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d10f0a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f181cf3d580&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=1, max_features='log2',
-                                        min_samples_leaf=4, min_samples_split=4,
-                                        n_estimators=50, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, min_samples_leaf=5,
+                                        min_samples_split=9, n_estimators=200,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7459890109890109</v>
+        <v>0.7690659340659339</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9ce09190&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 4, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f181d110b50&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 200, 'model__min_samples_split': 9, 'model__min_samples_leaf': 5, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8438098805910011</v>
+        <v>0.8030860187131779</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5974429958929959</v>
+        <v>0.6365851925851925</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8242784681730062</v>
+        <v>0.7686470532440832</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5800861111111111</v>
+        <v>0.6159690476190476</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8753061224489795</v>
+        <v>0.8629591836734692</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6426666666666666</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -745,7 +750,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -757,44 +762,44 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d125e20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f181d387280&gt;),
                 ('model',
-                 RandomForestClassifier(max_depth=2, max_features='log2',
-                                        min_samples_leaf=6, min_samples_split=4,
-                                        n_estimators=5, random_state=42))])</t>
+                 RandomForestClassifier(max_depth=1, min_samples_leaf=11,
+                                        min_samples_split=9, n_estimators=50,
+                                        random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7533516483516484</v>
+        <v>0.772142857142857</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9d13b820&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__min_samples_split': 4, 'model__min_samples_leaf': 6, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f181d1b2940&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__min_samples_split': 9, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8431748806668244</v>
+        <v>0.8133185001371643</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6281535797535798</v>
+        <v>0.6690890054390054</v>
       </c>
       <c r="F6" t="n">
         <v>0.6470588235294118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8387768999159489</v>
+        <v>0.7783157389766635</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6050103174603174</v>
+        <v>0.6239980158730157</v>
       </c>
       <c r="I6" t="n">
         <v>0.4782608695652174</v>
       </c>
       <c r="J6" t="n">
-        <v>0.861</v>
+        <v>0.8740192307692305</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6828333333333333</v>
+        <v>0.7518333333333334</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
